--- a/distance_state.xlsx
+++ b/distance_state.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelvi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{630921AE-255A-4E28-992C-512C9F35D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497C682-00CE-47CB-872D-B559041AEEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08BDF31F-6C10-4DD1-B317-59053BD9B238}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="32">
   <si>
     <t>Washington</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E18E2-A96F-46A6-A347-811131E9961B}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -515,8 +515,9 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -530,7 +531,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -544,7 +545,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -558,7 +559,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -572,7 +573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -586,7 +587,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -600,7 +601,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -614,7 +615,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -628,7 +629,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -642,7 +643,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -656,7 +657,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -670,7 +671,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -684,7 +685,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -698,7 +699,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -712,7 +713,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1017,6 +1018,510 @@
         <v>12</v>
       </c>
       <c r="D37" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="1">
         <v>749</v>
       </c>
     </row>
